--- a/phytoplankton/FRPtaxa T Brown edits.xlsx
+++ b/phytoplankton/FRPtaxa T Brown edits.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhartman\Documents\Documents\phytoplankton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhartman\Documents\Documents\FRPreport2018\phytoplankton\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF3F7C-F7C0-4409-BB72-66CFB04CB055}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRPtaxa" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FRPtaxa!$A$1:$H$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Taxon Info'!$A$1:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Taxon Info'!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="488">
   <si>
     <t>Taxon</t>
   </si>
@@ -794,37 +795,706 @@
     <t>Euglenoid</t>
   </si>
   <si>
-    <t>Synurophyte</t>
-  </si>
-  <si>
     <t>Green alga</t>
   </si>
   <si>
     <t>Filimentous green</t>
   </si>
   <si>
-    <t>Asterionella spp.</t>
-  </si>
-  <si>
-    <t>Didymosphenia spp.</t>
-  </si>
-  <si>
-    <t>Elakatothrix spp.</t>
-  </si>
-  <si>
-    <t>Lagerheimia spp.</t>
-  </si>
-  <si>
-    <t>Mesoporos spp.</t>
-  </si>
-  <si>
-    <t>Monoraphidium spp.</t>
+    <t>Achnanthidium sp.</t>
+  </si>
+  <si>
+    <t>Actinastrum hantzschii</t>
+  </si>
+  <si>
+    <t>Algae UNID</t>
+  </si>
+  <si>
+    <t>Amphora sp.</t>
+  </si>
+  <si>
+    <t>Anabaena sp.</t>
+  </si>
+  <si>
+    <t>Ankistrodesmus sp.</t>
+  </si>
+  <si>
+    <t>Aphanocapsa sp.</t>
+  </si>
+  <si>
+    <t>Arthrospira sp.</t>
+  </si>
+  <si>
+    <t>Aulacoseira sp.</t>
+  </si>
+  <si>
+    <t>Bacillaria paradoxa</t>
+  </si>
+  <si>
+    <t>Bacillaria sp.</t>
+  </si>
+  <si>
+    <t>Biddulphia sp.</t>
+  </si>
+  <si>
+    <t>Bitrichia chodatii</t>
+  </si>
+  <si>
+    <t>Borzia sp.</t>
+  </si>
+  <si>
+    <t>Brachysira sp.</t>
+  </si>
+  <si>
+    <t>Calothrix sp.</t>
+  </si>
+  <si>
+    <t>Carteria sp.</t>
+  </si>
+  <si>
+    <t>Centrales UNID</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp.</t>
+  </si>
+  <si>
+    <t>Chlamydomonas grovei</t>
+  </si>
+  <si>
+    <t>Chlorella ellipsoidea</t>
+  </si>
+  <si>
+    <t>Chlorophyta UNID</t>
+  </si>
+  <si>
+    <t>Chroococcus sp.</t>
+  </si>
+  <si>
+    <t>Chroomonas sp.</t>
+  </si>
+  <si>
+    <t>Chrysochromulina sp.</t>
+  </si>
+  <si>
+    <t>Chrysococcus sp.</t>
+  </si>
+  <si>
+    <t>Chrysophyte UNID</t>
+  </si>
+  <si>
+    <t>Cladophora glomerata</t>
+  </si>
+  <si>
+    <t>Closterium sp.</t>
+  </si>
+  <si>
+    <t>Cocconeis sp.</t>
+  </si>
+  <si>
+    <t>Coelastrum sp.</t>
+  </si>
+  <si>
+    <t>Crucigenia sp.</t>
+  </si>
+  <si>
+    <t>Crucigenia tetrapedia</t>
+  </si>
+  <si>
+    <t>Crucigeniella rectangularis</t>
+  </si>
+  <si>
+    <t>Crucigeniella sp.</t>
+  </si>
+  <si>
+    <t>Cryptomonas sp.</t>
+  </si>
+  <si>
+    <t>Cyanophyte UNID</t>
+  </si>
+  <si>
+    <t>Cyclotella atomus</t>
+  </si>
+  <si>
+    <t>Cyclotella sp.</t>
+  </si>
+  <si>
+    <t>Cylindrotheca sp.</t>
+  </si>
+  <si>
+    <t>Cymbella sp.</t>
+  </si>
+  <si>
+    <t>Desmodesmus sp.</t>
+  </si>
+  <si>
+    <t>Diatoma sp.</t>
+  </si>
+  <si>
+    <t>Dictyosphaerium pulchellum</t>
+  </si>
+  <si>
+    <t>Dictyosphaerium sp.</t>
+  </si>
+  <si>
+    <t>Dinobryon sp.</t>
+  </si>
+  <si>
+    <t>Dinoflagellate  UNID</t>
+  </si>
+  <si>
+    <t>Diploneis sp.</t>
+  </si>
+  <si>
+    <t>Encyonema sp.</t>
+  </si>
+  <si>
+    <t>Encyonopsis sp.</t>
+  </si>
+  <si>
+    <t>Entomoneis sp.</t>
+  </si>
+  <si>
+    <t>Epipyxis sp.</t>
+  </si>
+  <si>
+    <t>Epithemia sp.</t>
+  </si>
+  <si>
+    <t>Euglena sp.</t>
+  </si>
+  <si>
+    <t>Euglenophyta  UNID</t>
+  </si>
+  <si>
+    <t>Eunotia sp.</t>
+  </si>
+  <si>
+    <t>Fragilaria crotonensis</t>
+  </si>
+  <si>
+    <t>Fragilaria sp.</t>
+  </si>
+  <si>
+    <t>Frustulia sp.</t>
+  </si>
+  <si>
+    <t>Geitlerinema sp.</t>
+  </si>
+  <si>
+    <t>Geminella sp.</t>
+  </si>
+  <si>
+    <t>Gomphonema sp.</t>
+  </si>
+  <si>
+    <t>Gyrosigma sp.</t>
+  </si>
+  <si>
+    <t>Hemiselmis sp.</t>
+  </si>
+  <si>
+    <t>Heterocapsa sp.</t>
+  </si>
+  <si>
+    <t>Hippodonta sp.</t>
+  </si>
+  <si>
+    <t>Hymenomonas sp.</t>
+  </si>
+  <si>
+    <t>Katablepharis sp.</t>
+  </si>
+  <si>
+    <t>Katodinium sp.</t>
+  </si>
+  <si>
+    <t>Kirchneriella sp.</t>
+  </si>
+  <si>
+    <t>Klebsormidium sp.</t>
+  </si>
+  <si>
+    <t>Lagerheimia sp.</t>
+  </si>
+  <si>
+    <t>Lemnicola sp.</t>
+  </si>
+  <si>
+    <t>Lepidodinium sp.</t>
+  </si>
+  <si>
+    <t>Lepocinclis ovum</t>
+  </si>
+  <si>
+    <t>Lepocinclis sp.</t>
+  </si>
+  <si>
+    <t>Leptolyngbya sp.</t>
+  </si>
+  <si>
+    <t>Leucocryptos marina</t>
+  </si>
+  <si>
+    <t>Mallomonas akrokomos</t>
+  </si>
+  <si>
+    <t>Mallomonas sp.</t>
+  </si>
+  <si>
+    <t>Melosira sp.</t>
+  </si>
+  <si>
+    <t>Melosira varians</t>
+  </si>
+  <si>
+    <t>Merismopedia sp.</t>
+  </si>
+  <si>
+    <t>Microcystis sp.</t>
+  </si>
+  <si>
+    <t>Monoraphidium caribeum</t>
+  </si>
+  <si>
+    <t>Monoraphidium circinale</t>
+  </si>
+  <si>
+    <t>Monoraphidium griffithii</t>
+  </si>
+  <si>
+    <t>Monoraphidium tortile</t>
+  </si>
+  <si>
+    <t>Mougeotia sp.</t>
+  </si>
+  <si>
+    <t>Navicula sp.</t>
+  </si>
+  <si>
+    <t>Nephrochlamys sp.</t>
+  </si>
+  <si>
+    <t>Nitzschia sp.</t>
+  </si>
+  <si>
+    <t>Ochromonas sp.</t>
+  </si>
+  <si>
+    <t>Oedogonium sp.</t>
+  </si>
+  <si>
+    <t>Oocystis solitaria</t>
+  </si>
+  <si>
+    <t>Oscillatoria sp.</t>
+  </si>
+  <si>
+    <t>Pandorina sp.</t>
+  </si>
+  <si>
+    <t>Pediastrum boryanum</t>
+  </si>
+  <si>
+    <t>Pediastrum sp.</t>
+  </si>
+  <si>
+    <t>Pennales UNID</t>
+  </si>
+  <si>
+    <t>Peridinium sp.</t>
+  </si>
+  <si>
+    <t>Phacus sp.</t>
+  </si>
+  <si>
+    <t>Phormidium granulatum</t>
+  </si>
+  <si>
+    <t>Phormidium sp.</t>
+  </si>
+  <si>
+    <t>Plagioselmis sp.</t>
+  </si>
+  <si>
+    <t>Planktolyngbya sp.</t>
+  </si>
+  <si>
+    <t>Planothidium sp.</t>
+  </si>
+  <si>
+    <t>Pleurosigma sp.</t>
+  </si>
+  <si>
+    <t>Pleurosira laevis</t>
+  </si>
+  <si>
+    <t>Protoceratium sp.</t>
+  </si>
+  <si>
+    <t>Pseudanabaena mucicola</t>
+  </si>
+  <si>
+    <t>Pseudanabaena sp.</t>
+  </si>
+  <si>
+    <t>Pseudokephyrion sp.</t>
+  </si>
+  <si>
+    <t>Pseudokephyrion spirale</t>
+  </si>
+  <si>
+    <t>Pseudostaurosira sp.</t>
+  </si>
+  <si>
+    <t>Pyramimonas sp.</t>
+  </si>
+  <si>
+    <t>Raphidocelis subcapitata</t>
+  </si>
+  <si>
+    <t>Rhodomonas sp.</t>
+  </si>
+  <si>
+    <t>Rhoicosphenia sp.</t>
+  </si>
+  <si>
+    <t>Rhopalodia gibba</t>
+  </si>
+  <si>
+    <t>Scenedesmus acuminatus</t>
+  </si>
+  <si>
+    <t>Scenedesmus armatus</t>
+  </si>
+  <si>
+    <t>Scenedesmus sp.</t>
+  </si>
+  <si>
+    <t>Schroederia sp.</t>
+  </si>
+  <si>
+    <t>Sellaphora sp.</t>
+  </si>
+  <si>
+    <t>Sphaerocystis planktonica</t>
+  </si>
+  <si>
+    <t>Spondylosium javanicum</t>
+  </si>
+  <si>
+    <t>Staurastrum sp.</t>
+  </si>
+  <si>
+    <t>Stenopterobia sp.</t>
+  </si>
+  <si>
+    <t>Stephanodiscus sp.</t>
+  </si>
+  <si>
+    <t>Strombomonas sp.</t>
+  </si>
+  <si>
+    <t>Surirella sp.</t>
+  </si>
+  <si>
+    <t>Synechococcus sp.</t>
+  </si>
+  <si>
+    <t>Synedra sp.</t>
+  </si>
+  <si>
+    <t>Synura sp.</t>
+  </si>
+  <si>
+    <t>Tabellaria sp.</t>
+  </si>
+  <si>
+    <t>Tabularia sp.</t>
+  </si>
+  <si>
+    <t>Teleaulax sp.</t>
+  </si>
+  <si>
+    <t>Tetraëdron minimum</t>
+  </si>
+  <si>
+    <t>Tetraëdron regulare</t>
+  </si>
+  <si>
+    <t>Tetraspora sp.</t>
+  </si>
+  <si>
+    <t>Tetrastrum staurogeniaeforme</t>
+  </si>
+  <si>
+    <t>Thalassiosira sp.</t>
+  </si>
+  <si>
+    <t>Trachelomonas sp.</t>
+  </si>
+  <si>
+    <t>Trachelomonas volvocina</t>
+  </si>
+  <si>
+    <t>Tryblionella sp.</t>
+  </si>
+  <si>
+    <t>Tychonema sp.</t>
+  </si>
+  <si>
+    <t>Xanthophyte UNID</t>
+  </si>
+  <si>
+    <t>Asterionella sp.</t>
+  </si>
+  <si>
+    <t>Didymosphenia sp.</t>
+  </si>
+  <si>
+    <t>Elakatothrix sp.</t>
+  </si>
+  <si>
+    <t>Mesoporos sp.</t>
+  </si>
+  <si>
+    <t>Monoraphidium sp.</t>
+  </si>
+  <si>
+    <t>Actinastrum</t>
+  </si>
+  <si>
+    <t>Aphanocapsa</t>
+  </si>
+  <si>
+    <t>Cocolithophorid</t>
+  </si>
+  <si>
+    <t>Diploneis</t>
+  </si>
+  <si>
+    <t>Encyonopsis</t>
+  </si>
+  <si>
+    <t>Entomoneis</t>
+  </si>
+  <si>
+    <t>Epipyxis</t>
+  </si>
+  <si>
+    <t>Euglena</t>
+  </si>
+  <si>
+    <t>epiphytic</t>
+  </si>
+  <si>
+    <t>Chryptophyte</t>
+  </si>
+  <si>
+    <t>pelagic</t>
+  </si>
+  <si>
+    <t>brackish</t>
+  </si>
+  <si>
+    <t>Ochrophyte flagellate</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Katablepharid</t>
+  </si>
+  <si>
+    <t>Bitrichia</t>
+  </si>
+  <si>
+    <t>Borzia</t>
+  </si>
+  <si>
+    <t>Brachysira</t>
+  </si>
+  <si>
+    <t>Calothrix</t>
+  </si>
+  <si>
+    <t>Chlamydomonas</t>
+  </si>
+  <si>
+    <t>Chaetocerus</t>
+  </si>
+  <si>
+    <t>Chorella</t>
+  </si>
+  <si>
+    <t>Chrysochromulina</t>
+  </si>
+  <si>
+    <t>Chrysococcus</t>
+  </si>
+  <si>
+    <t>Cladophora</t>
+  </si>
+  <si>
+    <t>Crucigenia</t>
+  </si>
+  <si>
+    <t>Desmodesmus</t>
+  </si>
+  <si>
+    <t>Dictoyophaerium</t>
+  </si>
+  <si>
+    <t>Frustulia</t>
+  </si>
+  <si>
+    <t>Geitlerinema</t>
+  </si>
+  <si>
+    <t>Geminella</t>
+  </si>
+  <si>
+    <t>Hemiselmis</t>
+  </si>
+  <si>
+    <t>Heterocapsa</t>
+  </si>
+  <si>
+    <t>Hippodonta</t>
+  </si>
+  <si>
+    <t>Hymenomonas</t>
+  </si>
+  <si>
+    <t>Katablepharis</t>
+  </si>
+  <si>
+    <t>Katodinium</t>
+  </si>
+  <si>
+    <t>Kirchneriella</t>
+  </si>
+  <si>
+    <t>Klebsormidium</t>
+  </si>
+  <si>
+    <t>Lemnicola</t>
+  </si>
+  <si>
+    <t>Lepidodinium</t>
+  </si>
+  <si>
+    <t>Leucocryptos</t>
+  </si>
+  <si>
+    <t>Mougeotia</t>
+  </si>
+  <si>
+    <t>Nephrochlamys</t>
+  </si>
+  <si>
+    <t>Oedogonium</t>
+  </si>
+  <si>
+    <t>Oocystis</t>
+  </si>
+  <si>
+    <t>Pandorina</t>
+  </si>
+  <si>
+    <t>Pennales</t>
+  </si>
+  <si>
+    <t>Phacus</t>
+  </si>
+  <si>
+    <t>Plagioselmis</t>
+  </si>
+  <si>
+    <t>Planothidium</t>
+  </si>
+  <si>
+    <t>Pleurosigma</t>
+  </si>
+  <si>
+    <t>Pleurosira</t>
+  </si>
+  <si>
+    <t>Protoceratium</t>
+  </si>
+  <si>
+    <t>Pseudanabaena</t>
+  </si>
+  <si>
+    <t>Pyramimonas</t>
+  </si>
+  <si>
+    <t>Raphidocelis</t>
+  </si>
+  <si>
+    <t>Rhodomonas</t>
+  </si>
+  <si>
+    <t>Rhopalodia</t>
+  </si>
+  <si>
+    <t>Schroederia</t>
+  </si>
+  <si>
+    <t>Sellaphora</t>
+  </si>
+  <si>
+    <t>Sphaerocystis</t>
+  </si>
+  <si>
+    <t>Spondylosium</t>
+  </si>
+  <si>
+    <t>Staurastrum</t>
+  </si>
+  <si>
+    <t>Stenopterobia</t>
+  </si>
+  <si>
+    <t>Stephanodiscus</t>
+  </si>
+  <si>
+    <t>Synechococcus</t>
+  </si>
+  <si>
+    <t>Synura</t>
+  </si>
+  <si>
+    <t>Tabellaria</t>
+  </si>
+  <si>
+    <t>Tabularia</t>
+  </si>
+  <si>
+    <t>Teleaulax</t>
+  </si>
+  <si>
+    <t>Tetraëdron</t>
+  </si>
+  <si>
+    <t>Tetraspora</t>
+  </si>
+  <si>
+    <t>Tetrastrum</t>
+  </si>
+  <si>
+    <t>Tryblionella</t>
+  </si>
+  <si>
+    <t>Tychonema</t>
+  </si>
+  <si>
+    <t>Xanthophyte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -974,7 +1644,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,6 +1822,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1357,7 +2033,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1376,6 +2052,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1417,7 +2107,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet2_1" xfId="42"/>
+    <cellStyle name="Normal_Sheet2_1" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1733,10 +2423,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3309,17 +3999,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H60"/>
+  <autoFilter ref="A1:H60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,22 +4049,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>223</v>
@@ -3381,88 +4072,74 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>250</v>
+        <v>269</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>220</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
+      <c r="A5" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>224</v>
@@ -3473,22 +4150,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>223</v>
@@ -3496,15 +4173,15 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3519,33 +4196,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>226</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+      <c r="A10" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>229</v>
@@ -3554,27 +4231,27 @@
         <v>229</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>230</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
+      <c r="A11" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>222</v>
@@ -3588,263 +4265,253 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>400</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
+      <c r="A13" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>252</v>
+        <v>420</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>239</v>
+        <v>420</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>227</v>
+        <v>421</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
+      <c r="A14" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>257</v>
+        <v>420</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>72</v>
+      <c r="A15" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
+      <c r="A16" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>225</v>
+        <v>420</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
+      <c r="A17" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>83</v>
+      <c r="A18" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>223</v>
+        <v>253</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>87</v>
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>223</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>93</v>
+      <c r="A21" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>224</v>
+        <v>419</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>97</v>
+        <v>192</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>253</v>
@@ -3853,7 +4520,7 @@
         <v>238</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>227</v>
@@ -3864,171 +4531,157 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>227</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>108</v>
+      <c r="A25" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>250</v>
+        <v>424</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>223</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>111</v>
+      <c r="A26" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>250</v>
+        <v>424</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>221</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>119</v>
+      <c r="A28" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>223</v>
+      <c r="F28" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>125</v>
+      <c r="A30" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>262</v>
+      <c r="A31" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>251</v>
@@ -4037,32 +4690,30 @@
         <v>225</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>134</v>
+      <c r="A32" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>227</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -4070,43 +4721,43 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>140</v>
+      <c r="A33" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>144</v>
+      <c r="A34" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>227</v>
@@ -4116,17 +4767,17 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>149</v>
+      <c r="A35" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>226</v>
@@ -4135,21 +4786,21 @@
         <v>227</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>153</v>
+      <c r="A36" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>226</v>
@@ -4158,47 +4809,47 @@
         <v>227</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>263</v>
+      <c r="A37" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>227</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>227</v>
@@ -4211,8 +4862,8 @@
       <c r="A39" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>264</v>
+      <c r="B39" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>251</v>
@@ -4232,134 +4883,134 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>172</v>
+      <c r="A41" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E41" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>223</v>
+      <c r="F41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>174</v>
+      <c r="A42" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>177</v>
+      <c r="A43" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>344</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>223</v>
+        <v>251</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>180</v>
+      <c r="A44" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>183</v>
+      <c r="A45" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>227</v>
@@ -4369,260 +5020,2595 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>187</v>
+      <c r="A46" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>223</v>
+      <c r="G50" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>200</v>
+      <c r="A51" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51" t="s">
+        <v>352</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="F52" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B59" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B60" t="s">
+        <v>398</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B61" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B79" t="s">
+        <v>368</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B80" t="s">
+        <v>369</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B81" t="s">
+        <v>390</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B85" t="s">
+        <v>326</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B86" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B90" t="s">
+        <v>367</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B91" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>312</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B95" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="B96" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D96" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E96" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="F96" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" t="s">
+        <v>402</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B103" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B104" t="s">
+        <v>384</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B107" t="s">
+        <v>374</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B110" t="s">
+        <v>396</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B111" t="s">
+        <v>397</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117" t="s">
+        <v>392</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>424</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B119" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B120" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B132" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B134" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B136" t="s">
+        <v>307</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B137" t="s">
+        <v>308</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B146" t="s">
+        <v>330</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B149" t="s">
+        <v>357</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B150" t="s">
+        <v>364</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B151" t="s">
+        <v>365</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B154" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B155" t="s">
+        <v>382</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B156" t="s">
+        <v>386</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B157" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D157" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E157" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F157" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="G157" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="B158" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D158" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E158" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F158" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G158" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F55" s="3" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B159" t="s">
+        <v>393</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F159" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G159" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B160" t="s">
+        <v>394</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B161" t="s">
+        <v>403</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="3" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" t="s">
+        <v>336</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>221</v>
+      <c r="F162" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>405</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G56"/>
+  <autoFilter ref="A1:G41" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G164">
+      <sortCondition ref="C1:C41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/phytoplankton/FRPtaxa T Brown edits.xlsx
+++ b/phytoplankton/FRPtaxa T Brown edits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhartman\Documents\Documents\FRPreport2018\phytoplankton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/FRP stuff/FRPreport2018/phytoplankton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF3F7C-F7C0-4409-BB72-66CFB04CB055}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76CC2CC2-8693-4773-B560-2C80EEB11871}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRPtaxa" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FRPtaxa!$A$1:$H$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Taxon Info'!$A$1:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Taxon Info'!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="495">
   <si>
     <t>Taxon</t>
   </si>
@@ -1489,6 +1489,27 @@
   </si>
   <si>
     <t>Xanthophyte</t>
+  </si>
+  <si>
+    <t>Centrales</t>
+  </si>
+  <si>
+    <t>Chaetoceros</t>
+  </si>
+  <si>
+    <t>Crucigeniella</t>
+  </si>
+  <si>
+    <t>Dictyosphaerium</t>
+  </si>
+  <si>
+    <t>Cyanophyte</t>
+  </si>
+  <si>
+    <t>Algae</t>
+  </si>
+  <si>
+    <t>Taxon2</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2086,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4007,3606 +4028,4102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="E20" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>433</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F30" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>436</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C31" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>436</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>436</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="G34" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C40" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E40" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F40" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="G40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C42" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E42" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F42" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="G42" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B43" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C43" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E43" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F43" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="G43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" t="s">
+        <v>414</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C51" t="s">
+        <v>415</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" t="s">
+        <v>416</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B60" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" t="s">
+        <v>440</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B61" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" t="s">
+        <v>441</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B65" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" t="s">
+        <v>444</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B68" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" t="s">
+        <v>446</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B69" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B70" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C70" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E70" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F70" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="G70" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>449</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B72" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C72" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E72" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F72" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="G72" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="3" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="F73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="7" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>450</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="7" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B75" t="s">
+        <v>331</v>
+      </c>
+      <c r="C75" t="s">
+        <v>451</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="7" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" t="s">
-        <v>344</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" s="7" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B79" t="s">
+        <v>335</v>
+      </c>
+      <c r="C79" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="7" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" t="s">
-        <v>345</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B48" t="s">
-        <v>346</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B49" t="s">
-        <v>348</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B50" t="s">
-        <v>351</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B51" t="s">
-        <v>352</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B52" t="s">
-        <v>354</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E52" s="7" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53" t="s">
-        <v>355</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="G82" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="G83" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" t="s">
-        <v>378</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" t="s">
-        <v>379</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B59" t="s">
-        <v>383</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B60" t="s">
-        <v>398</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B61" t="s">
-        <v>399</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="G84" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B71" t="s">
-        <v>317</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B76" t="s">
-        <v>360</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B79" t="s">
-        <v>368</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B80" t="s">
-        <v>369</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B81" t="s">
-        <v>390</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B82" t="s">
-        <v>404</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B84" t="s">
-        <v>322</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>447</v>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>232</v>
+        <v>156</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>232</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="G85" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B86" t="s">
-        <v>331</v>
+        <v>227</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>232</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="G86" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" t="s">
+        <v>344</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" t="s">
+        <v>345</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B97" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" t="s">
+        <v>453</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B99" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" t="s">
+        <v>454</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" t="s">
+        <v>455</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B103" t="s">
+        <v>352</v>
+      </c>
+      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B105" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" t="s">
+        <v>457</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B108" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" t="s">
+        <v>458</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" t="s">
+        <v>359</v>
+      </c>
+      <c r="C110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B111" t="s">
+        <v>360</v>
+      </c>
+      <c r="C111" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" t="s">
+        <v>461</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B116" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" t="s">
+        <v>462</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H116" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="7" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B118" t="s">
+        <v>367</v>
+      </c>
+      <c r="C118" t="s">
+        <v>464</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E118" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="F118" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G87" s="7" t="s">
+      <c r="G118" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B119" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" t="s">
+        <v>465</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
+        <v>465</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B124" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" t="s">
+        <v>466</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B125" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" t="s">
+        <v>467</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B128" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" t="s">
+        <v>469</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B130" t="s">
+        <v>379</v>
+      </c>
+      <c r="C130" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B131" t="s">
+        <v>198</v>
+      </c>
+      <c r="C131" t="s">
+        <v>199</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B133" t="s">
+        <v>381</v>
+      </c>
+      <c r="C133" t="s">
+        <v>470</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" t="s">
+        <v>382</v>
+      </c>
+      <c r="C134" t="s">
+        <v>471</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B135" t="s">
+        <v>383</v>
+      </c>
+      <c r="C135" t="s">
+        <v>472</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B136" t="s">
+        <v>384</v>
+      </c>
+      <c r="C136" t="s">
+        <v>473</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B137" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" t="s">
+        <v>474</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B138" t="s">
+        <v>386</v>
+      </c>
+      <c r="C138" t="s">
+        <v>475</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B142" t="s">
+        <v>390</v>
+      </c>
+      <c r="C142" t="s">
+        <v>477</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B144" t="s">
+        <v>392</v>
+      </c>
+      <c r="C144" t="s">
+        <v>478</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B145" t="s">
+        <v>393</v>
+      </c>
+      <c r="C145" t="s">
+        <v>479</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B146" t="s">
+        <v>394</v>
+      </c>
+      <c r="C146" t="s">
+        <v>480</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H146" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C88" s="7" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B148" t="s">
+        <v>396</v>
+      </c>
+      <c r="C148" t="s">
+        <v>482</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B149" t="s">
+        <v>397</v>
+      </c>
+      <c r="C149" t="s">
+        <v>482</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B150" t="s">
+        <v>398</v>
+      </c>
+      <c r="C150" t="s">
+        <v>483</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B151" t="s">
+        <v>399</v>
+      </c>
+      <c r="C151" t="s">
+        <v>484</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B154" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" t="s">
+        <v>217</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B155" t="s">
+        <v>403</v>
+      </c>
+      <c r="C155" t="s">
+        <v>485</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B156" t="s">
+        <v>404</v>
+      </c>
+      <c r="C156" t="s">
+        <v>486</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>304</v>
+      </c>
+      <c r="C160" t="s">
         <v>232</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E160" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>312</v>
+      </c>
+      <c r="C161" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G89" s="7" t="s">
+      <c r="G161" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H161" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B90" t="s">
-        <v>367</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B91" t="s">
-        <v>311</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>312</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B93" t="s">
-        <v>332</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B95" t="s">
-        <v>359</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B98" t="s">
-        <v>402</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B102" t="s">
-        <v>318</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B103" t="s">
-        <v>328</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B104" t="s">
-        <v>384</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C105" s="7" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B107" t="s">
-        <v>374</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B108" t="s">
-        <v>381</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B109" t="s">
-        <v>385</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B110" t="s">
-        <v>396</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B111" t="s">
-        <v>397</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B116" t="s">
-        <v>373</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B117" t="s">
-        <v>392</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12" t="s">
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="11"/>
+      <c r="B163" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C163" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D163" t="s">
         <v>424</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B119" t="s">
-        <v>325</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B120" t="s">
-        <v>335</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B132" t="s">
-        <v>95</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B134" t="s">
-        <v>305</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B136" t="s">
-        <v>307</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B137" t="s">
-        <v>308</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" t="s">
-        <v>314</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B142" t="s">
-        <v>316</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B145" t="s">
-        <v>323</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B146" t="s">
-        <v>330</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B149" t="s">
-        <v>357</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B150" t="s">
-        <v>364</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B151" t="s">
-        <v>365</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B154" t="s">
-        <v>377</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B155" t="s">
-        <v>382</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B156" t="s">
-        <v>386</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B159" t="s">
-        <v>393</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B160" t="s">
-        <v>394</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B161" t="s">
-        <v>403</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B162" t="s">
-        <v>336</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>405</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" t="s">
+        <v>487</v>
+      </c>
+      <c r="D164" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="E164" s="7" t="s">
         <v>487</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G41" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G164">
-      <sortCondition ref="C1:C41"/>
+  <autoFilter ref="A1:H41" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="A2:H164">
+      <sortCondition ref="A1:A41"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
